--- a/atadereuniao.xlsx
+++ b/atadereuniao.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\CLIENTES\FCB - TRANSPORTE LOGISTICA E SERVICOS GERAIS LTDA\Controladoria FCB\FC\Apresentacao_FCB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ecristina.santana\Desktop\Emplavi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCA3324C-54DC-4F02-950C-7083CE15F13E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAF2E428-9D52-4686-AC9A-C4AD2BDEB829}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="11265" windowHeight="4470" xr2:uid="{ACABA4DD-8C53-4F27-A6A5-65024A59DCA2}"/>
   </bookViews>
@@ -63,12 +63,6 @@
     <t>Inserir subníveis na DFC</t>
   </si>
   <si>
-    <t>Tânia</t>
-  </si>
-  <si>
-    <t>Flávio</t>
-  </si>
-  <si>
     <t xml:space="preserve">Envio de link da apresentação </t>
   </si>
   <si>
@@ -127,6 +121,12 @@
   </si>
   <si>
     <t>Observação G</t>
+  </si>
+  <si>
+    <t>Colaborador F</t>
+  </si>
+  <si>
+    <t>Diretor A</t>
   </si>
 </sst>
 </file>
@@ -518,7 +518,7 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -553,7 +553,7 @@
         <v>2</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -561,7 +561,7 @@
         <v>44980</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>5</v>
@@ -576,7 +576,7 @@
         <v>6</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -584,7 +584,7 @@
         <v>44980</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>5</v>
@@ -599,7 +599,7 @@
         <v>6</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -622,7 +622,7 @@
         <v>6</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -645,7 +645,7 @@
         <v>6</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -653,22 +653,22 @@
         <v>44980</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="3">
+        <v>45093</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="4" t="s">
         <v>18</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6" s="3">
-        <v>45093</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -691,7 +691,7 @@
         <v>6</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -699,13 +699,13 @@
         <v>44980</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E8" s="3">
         <v>45093</v>
@@ -714,7 +714,7 @@
         <v>6</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -722,14 +722,14 @@
         <v>44980</v>
       </c>
       <c r="B9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>24</v>
-      </c>
       <c r="E9" s="3">
         <v>45093</v>
       </c>
@@ -737,7 +737,7 @@
         <v>6</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -745,14 +745,14 @@
         <v>44980</v>
       </c>
       <c r="B10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>25</v>
-      </c>
       <c r="E10" s="3">
         <v>45093</v>
       </c>
@@ -760,7 +760,7 @@
         <v>6</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -768,7 +768,7 @@
         <v>44980</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>5</v>
@@ -780,10 +780,10 @@
         <v>45093</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -791,22 +791,22 @@
         <v>44980</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="D12" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="3">
+        <v>45093</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G12" s="4" t="s">
         <v>24</v>
-      </c>
-      <c r="E12" s="3">
-        <v>45093</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -814,13 +814,13 @@
         <v>44980</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E13" s="3">
         <v>45093</v>
@@ -829,7 +829,7 @@
         <v>6</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -837,13 +837,13 @@
         <v>44980</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E14" s="3">
         <v>45093</v>
@@ -852,7 +852,7 @@
         <v>6</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -860,13 +860,13 @@
         <v>44980</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E15" s="3">
         <v>45093</v>
@@ -875,7 +875,7 @@
         <v>6</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -883,13 +883,13 @@
         <v>44980</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E16" s="3">
         <v>45093</v>
@@ -898,7 +898,7 @@
         <v>6</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -906,13 +906,13 @@
         <v>44980</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E17" s="3">
         <v>45093</v>
@@ -921,7 +921,7 @@
         <v>6</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -929,13 +929,13 @@
         <v>44980</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E18" s="3">
         <v>45093</v>
@@ -944,7 +944,7 @@
         <v>6</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/atadereuniao.xlsx
+++ b/atadereuniao.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ecristina.santana\Desktop\Emplavi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAF2E428-9D52-4686-AC9A-C4AD2BDEB829}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4E5564A4-05FE-4811-B05A-3F545DE0EBE2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="11265" windowHeight="4470" xr2:uid="{ACABA4DD-8C53-4F27-A6A5-65024A59DCA2}"/>
   </bookViews>
@@ -518,7 +518,7 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
